--- a/10/1/Inflación 2000 a 2021 - Mensual.xlsx
+++ b/10/1/Inflación 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>Serie</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y259"/>
+  <dimension ref="A1:Y260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6616,6 +6619,32 @@
         <v>3.7</v>
       </c>
     </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>283</v>
+      </c>
+      <c r="B260">
+        <v>0.3</v>
+      </c>
+      <c r="C260">
+        <v>0.4</v>
+      </c>
+      <c r="D260">
+        <v>3.5</v>
+      </c>
+      <c r="E260">
+        <v>3</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+      <c r="G260">
+        <v>3.3</v>
+      </c>
+      <c r="H260">
+        <v>4.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Inflación 2000 a 2021 - Mensual.xlsx
+++ b/10/1/Inflación 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Serie</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y260"/>
+  <dimension ref="A1:Y261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6645,6 +6648,32 @@
         <v>4.2</v>
       </c>
     </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
+        <v>284</v>
+      </c>
+      <c r="B261">
+        <v>0.6</v>
+      </c>
+      <c r="C261">
+        <v>0.6</v>
+      </c>
+      <c r="D261">
+        <v>4.3</v>
+      </c>
+      <c r="E261">
+        <v>3.2</v>
+      </c>
+      <c r="F261">
+        <v>3</v>
+      </c>
+      <c r="G261">
+        <v>3.5</v>
+      </c>
+      <c r="H261">
+        <v>5.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Inflación 2000 a 2021 - Mensual.xlsx
+++ b/10/1/Inflación 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>Serie</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y261"/>
+  <dimension ref="A1:Y262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6674,6 +6677,32 @@
         <v>5.1</v>
       </c>
     </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>285</v>
+      </c>
+      <c r="B262">
+        <v>0.7</v>
+      </c>
+      <c r="C262">
+        <v>0.4</v>
+      </c>
+      <c r="D262">
+        <v>4.5</v>
+      </c>
+      <c r="E262">
+        <v>3.3</v>
+      </c>
+      <c r="F262">
+        <v>3</v>
+      </c>
+      <c r="G262">
+        <v>3.8</v>
+      </c>
+      <c r="H262">
+        <v>5.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
